--- a/servidor/plantillasVacias/Planificacion Multiple.xlsx
+++ b/servidor/plantillasVacias/Planificacion Multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88F890-4AAB-4FAF-A918-A73B3B2E5260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F380F131-3206-41D0-BE16-E2E9C3A046B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A4A467B-1E2B-4A17-8C92-897AD1B099A6}"/>
   </bookViews>
@@ -119,15 +119,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,22 +177,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,144 +512,144 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="b">
+      <c r="F3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="b">
+      <c r="G3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="b">
+      <c r="H3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="b">
+      <c r="J3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="b">
+      <c r="K3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="b">
+      <c r="L3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="M4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="M5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
